--- a/BalanceSheet/CGNX_bal.xlsx
+++ b/BalanceSheet/CGNX_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-7254000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-1401000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-6618000.0</v>
+        <v>53000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4954000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5118000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>65264000.0</v>
@@ -1766,19 +1766,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-5275000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3444000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1756000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-1613000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5031000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>12766000.0</v>
@@ -3022,19 +3022,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-6547000.0</v>
+        <v>-120000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1799000.0</v>
+        <v>-113000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3221000.0</v>
+        <v>-117000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-1826000.0</v>
+        <v>-120000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-93061000.0</v>
+        <v>-117000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>289000.0</v>
